--- a/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_SK.xlsx
+++ b/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_SK.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_calibration_MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7861ED3A-E09D-4CED-BE9A-ED7928F592C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2E62AB-ABFA-41B2-8046-F335F86D7743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B258E519-158F-422B-B087-C904544EC01F}"/>
+    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{4DDACCC5-863B-426B-92CF-063C5799C3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1180,21 +1180,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755695A3-6B1A-46A5-8776-4FE7F9D10E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8410497-BD15-457B-8819-1F8D47FEB2F5}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>130</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>130</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>131</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>131</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>135</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>135</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>137</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>138</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>139</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>141</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>146</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>146</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>146</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>149</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>149</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>157</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>160</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>0.27422680412371098</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>160</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>0.27371134020618498</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>160</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>160</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>166</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>169</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>169</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>170</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>170</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>172</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>172</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>173</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>173</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>175</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>175</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>175</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>176</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>176</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>177</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>178</v>
       </c>
@@ -8938,7 +8938,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>179</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>183</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>183</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>183</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>183</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>183</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>183</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>185</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>185</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>185</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>185</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>185</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>185</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>186</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>190</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>193</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>193</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>193</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>193</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>193</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>193</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>198</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>198</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>198</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>199</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>199</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>200</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>201</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>201</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>201</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>202</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -11357,7 +11357,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>207</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>208</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>210</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>210</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>212</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>212</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>213</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>216</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>218</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>218</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>223</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>223</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>223</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>223</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>228</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>231</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>0.937400699078487</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>231</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>0.937400699078487</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>231</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>6.2599300921512502E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>231</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>6.2599300921512502E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>236</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>240</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>244</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>247</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>247</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>250</v>
       </c>
@@ -12920,47 +12920,47 @@
         <v>0.02</v>
       </c>
       <c r="N200">
-        <f t="shared" ref="N200:W203" si="0">M200</f>
+        <f t="shared" ref="N200:W203" ca="1" si="0">M200</f>
         <v>0.02</v>
       </c>
       <c r="O200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="Q200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="R200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="S200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="T200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="U200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="V200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="W200">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>250</v>
       </c>
@@ -12989,47 +12989,47 @@
         <v>0.05</v>
       </c>
       <c r="N201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="O201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="Q201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="R201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="S201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="T201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="U201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="V201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="W201">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>250</v>
       </c>
@@ -13058,47 +13058,47 @@
         <v>0</v>
       </c>
       <c r="N202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V202">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W202">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>250</v>
       </c>
@@ -13127,47 +13127,47 @@
         <v>0</v>
       </c>
       <c r="N203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V203">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W203">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>255</v>
       </c>
